--- a/PayoffMatrix/src/test/resources/Position_PL_calculation.xlsx
+++ b/PayoffMatrix/src/test/resources/Position_PL_calculation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\NIfty\Equity Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikas.Badami\git\vizerium\PayoffMatrix\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5FDD56-B45A-4DEF-A51D-9D95C4576B0B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{00C49797-71C5-42C2-8864-63BE6C526178}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{1B469E7B-7A84-4AB3-8EB5-1B063D773CD7}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Strike</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>CE</t>
-  </si>
-  <si>
-    <t>PE</t>
   </si>
   <si>
     <t>Buy</t>
@@ -147,7 +144,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Position PL calculation.xlsx]Graph Output!PivotTable4</c:name>
+    <c:name>[Position_PL_calculation.xlsx]Graph Output!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -236,139 +233,139 @@
               <c:strCache>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>10300</c:v>
+                  <c:v>27200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10325</c:v>
+                  <c:v>27225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10350</c:v>
+                  <c:v>27250</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10375</c:v>
+                  <c:v>27275</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10400</c:v>
+                  <c:v>27300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10425</c:v>
+                  <c:v>27325</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10450</c:v>
+                  <c:v>27350</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10475</c:v>
+                  <c:v>27375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10500</c:v>
+                  <c:v>27400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10525</c:v>
+                  <c:v>27425</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10550</c:v>
+                  <c:v>27450</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10575</c:v>
+                  <c:v>27475</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10600</c:v>
+                  <c:v>27500</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10625</c:v>
+                  <c:v>27525</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10650</c:v>
+                  <c:v>27550</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10675</c:v>
+                  <c:v>27575</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10700</c:v>
+                  <c:v>27600</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10725</c:v>
+                  <c:v>27625</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10750</c:v>
+                  <c:v>27650</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10775</c:v>
+                  <c:v>27675</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10800</c:v>
+                  <c:v>27700</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10825</c:v>
+                  <c:v>27725</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10850</c:v>
+                  <c:v>27750</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10875</c:v>
+                  <c:v>27775</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10900</c:v>
+                  <c:v>27800</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10925</c:v>
+                  <c:v>27825</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10950</c:v>
+                  <c:v>27850</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10975</c:v>
+                  <c:v>27875</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11000</c:v>
+                  <c:v>27900</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11025</c:v>
+                  <c:v>27925</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11050</c:v>
+                  <c:v>27950</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11075</c:v>
+                  <c:v>27975</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11100</c:v>
+                  <c:v>28000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11125</c:v>
+                  <c:v>28025</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11150</c:v>
+                  <c:v>28050</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11175</c:v>
+                  <c:v>28075</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11200</c:v>
+                  <c:v>28100</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11225</c:v>
+                  <c:v>28125</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11250</c:v>
+                  <c:v>28150</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11275</c:v>
+                  <c:v>28175</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11300</c:v>
+                  <c:v>28200</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11325</c:v>
+                  <c:v>28225</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11350</c:v>
+                  <c:v>28250</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11375</c:v>
+                  <c:v>28275</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>11400</c:v>
+                  <c:v>28300</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -380,139 +377,139 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>-39285</c:v>
+                  <c:v>-1770</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-29910</c:v>
+                  <c:v>-1770</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-20535</c:v>
+                  <c:v>-1770</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-11160</c:v>
+                  <c:v>-1770</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1785</c:v>
+                  <c:v>-1770</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>-1770</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1965</c:v>
+                  <c:v>-1770</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3840</c:v>
+                  <c:v>-1770</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5715</c:v>
+                  <c:v>-1770</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7590</c:v>
+                  <c:v>-1770</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9465</c:v>
+                  <c:v>-1770</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9465</c:v>
+                  <c:v>-1770</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9465</c:v>
+                  <c:v>-1770</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9465</c:v>
+                  <c:v>-1770</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9465</c:v>
+                  <c:v>-1770</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9465</c:v>
+                  <c:v>-1770</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9465</c:v>
+                  <c:v>-1770</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9465</c:v>
+                  <c:v>-770</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9465</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9465</c:v>
+                  <c:v>1230</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9465</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7590</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5715</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3840</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1965</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3840.0000000000005</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5715</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7590</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9465</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11340</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13215</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15090</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16965</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>18840</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20715</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>22590</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24465</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>26340</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>28215</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>30090</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>31965</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>33840</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>35715</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37590</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>39465</c:v>
+                  <c:v>2230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1327,62 +1324,107 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vikas.Badami" refreshedDate="43266.495224189814" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45" xr:uid="{7AD20C18-41DF-4398-8684-55DB974BAB58}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Vikas.Badami" refreshedDate="43309.506596296298" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45" xr:uid="{7AD20C18-41DF-4398-8684-55DB974BAB58}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B7:C52" sheet="Open Positions"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Spot" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10300" maxValue="11400" count="45">
-        <n v="10300"/>
-        <n v="10325"/>
-        <n v="10350"/>
-        <n v="10375"/>
-        <n v="10400"/>
-        <n v="10425"/>
-        <n v="10450"/>
-        <n v="10475"/>
-        <n v="10500"/>
-        <n v="10525"/>
-        <n v="10550"/>
-        <n v="10575"/>
-        <n v="10600"/>
-        <n v="10625"/>
-        <n v="10650"/>
-        <n v="10675"/>
-        <n v="10700"/>
-        <n v="10725"/>
-        <n v="10750"/>
-        <n v="10775"/>
-        <n v="10800"/>
-        <n v="10825"/>
-        <n v="10850"/>
-        <n v="10875"/>
-        <n v="10900"/>
-        <n v="10925"/>
-        <n v="10950"/>
-        <n v="10975"/>
-        <n v="11000"/>
-        <n v="11025"/>
-        <n v="11050"/>
-        <n v="11075"/>
-        <n v="11100"/>
-        <n v="11125"/>
-        <n v="11150"/>
-        <n v="11175"/>
-        <n v="11200"/>
-        <n v="11225"/>
-        <n v="11250"/>
-        <n v="11275"/>
-        <n v="11300"/>
-        <n v="11325"/>
-        <n v="11350"/>
-        <n v="11375"/>
-        <n v="11400"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10300" maxValue="28300" count="90">
+        <n v="27200"/>
+        <n v="27225"/>
+        <n v="27250"/>
+        <n v="27275"/>
+        <n v="27300"/>
+        <n v="27325"/>
+        <n v="27350"/>
+        <n v="27375"/>
+        <n v="27400"/>
+        <n v="27425"/>
+        <n v="27450"/>
+        <n v="27475"/>
+        <n v="27500"/>
+        <n v="27525"/>
+        <n v="27550"/>
+        <n v="27575"/>
+        <n v="27600"/>
+        <n v="27625"/>
+        <n v="27650"/>
+        <n v="27675"/>
+        <n v="27700"/>
+        <n v="27725"/>
+        <n v="27750"/>
+        <n v="27775"/>
+        <n v="27800"/>
+        <n v="27825"/>
+        <n v="27850"/>
+        <n v="27875"/>
+        <n v="27900"/>
+        <n v="27925"/>
+        <n v="27950"/>
+        <n v="27975"/>
+        <n v="28000"/>
+        <n v="28025"/>
+        <n v="28050"/>
+        <n v="28075"/>
+        <n v="28100"/>
+        <n v="28125"/>
+        <n v="28150"/>
+        <n v="28175"/>
+        <n v="28200"/>
+        <n v="28225"/>
+        <n v="28250"/>
+        <n v="28275"/>
+        <n v="28300"/>
+        <n v="10425" u="1"/>
+        <n v="10900" u="1"/>
+        <n v="11375" u="1"/>
+        <n v="10600" u="1"/>
+        <n v="11075" u="1"/>
+        <n v="10300" u="1"/>
+        <n v="10775" u="1"/>
+        <n v="11250" u="1"/>
+        <n v="10475" u="1"/>
+        <n v="10950" u="1"/>
+        <n v="10650" u="1"/>
+        <n v="11125" u="1"/>
+        <n v="10350" u="1"/>
+        <n v="10825" u="1"/>
+        <n v="11300" u="1"/>
+        <n v="10525" u="1"/>
+        <n v="11000" u="1"/>
+        <n v="10700" u="1"/>
+        <n v="11175" u="1"/>
+        <n v="10400" u="1"/>
+        <n v="10875" u="1"/>
+        <n v="11350" u="1"/>
+        <n v="10575" u="1"/>
+        <n v="11050" u="1"/>
+        <n v="10750" u="1"/>
+        <n v="11225" u="1"/>
+        <n v="10450" u="1"/>
+        <n v="10925" u="1"/>
+        <n v="11400" u="1"/>
+        <n v="10625" u="1"/>
+        <n v="11100" u="1"/>
+        <n v="10325" u="1"/>
+        <n v="10800" u="1"/>
+        <n v="11275" u="1"/>
+        <n v="10500" u="1"/>
+        <n v="10975" u="1"/>
+        <n v="10675" u="1"/>
+        <n v="11150" u="1"/>
+        <n v="10375" u="1"/>
+        <n v="10850" u="1"/>
+        <n v="11325" u="1"/>
+        <n v="10550" u="1"/>
+        <n v="11025" u="1"/>
+        <n v="10725" u="1"/>
+        <n v="11200" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Payoff" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-39285" maxValue="39465"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-1770" maxValue="2230"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1397,193 +1439,238 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="45">
   <r>
     <x v="0"/>
-    <n v="-39285"/>
+    <n v="-1770"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="-29910"/>
+    <n v="-1770"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="-20535"/>
+    <n v="-1770"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="-11160"/>
+    <n v="-1770"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="-1785"/>
+    <n v="-1770"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="90"/>
+    <n v="-1770"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="1965"/>
+    <n v="-1770"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="3840"/>
+    <n v="-1770"/>
   </r>
   <r>
     <x v="8"/>
-    <n v="5715"/>
+    <n v="-1770"/>
   </r>
   <r>
     <x v="9"/>
-    <n v="7590"/>
+    <n v="-1770"/>
   </r>
   <r>
     <x v="10"/>
-    <n v="9465"/>
+    <n v="-1770"/>
   </r>
   <r>
     <x v="11"/>
-    <n v="9465"/>
+    <n v="-1770"/>
   </r>
   <r>
     <x v="12"/>
-    <n v="9465"/>
+    <n v="-1770"/>
   </r>
   <r>
     <x v="13"/>
-    <n v="9465"/>
+    <n v="-1770"/>
   </r>
   <r>
     <x v="14"/>
-    <n v="9465"/>
+    <n v="-1770"/>
   </r>
   <r>
     <x v="15"/>
-    <n v="9465"/>
+    <n v="-1770"/>
   </r>
   <r>
     <x v="16"/>
-    <n v="9465"/>
+    <n v="-1770"/>
   </r>
   <r>
     <x v="17"/>
-    <n v="9465"/>
+    <n v="-770"/>
   </r>
   <r>
     <x v="18"/>
-    <n v="9465"/>
+    <n v="230"/>
   </r>
   <r>
     <x v="19"/>
-    <n v="9465"/>
+    <n v="1230"/>
   </r>
   <r>
     <x v="20"/>
-    <n v="9465"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="21"/>
-    <n v="7590"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="22"/>
-    <n v="5715"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="23"/>
-    <n v="3840"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="24"/>
-    <n v="1965"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="25"/>
-    <n v="3840.0000000000005"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="26"/>
-    <n v="5715"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="27"/>
-    <n v="7590"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="28"/>
-    <n v="9465"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="29"/>
-    <n v="11340"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="30"/>
-    <n v="13215"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="31"/>
-    <n v="15090"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="32"/>
-    <n v="16965"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="33"/>
-    <n v="18840"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="34"/>
-    <n v="20715"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="35"/>
-    <n v="22590"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="36"/>
-    <n v="24465"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="37"/>
-    <n v="26340"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="38"/>
-    <n v="28215"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="39"/>
-    <n v="30090"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="40"/>
-    <n v="31965"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="41"/>
-    <n v="33840"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="42"/>
-    <n v="35715"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="43"/>
-    <n v="37590"/>
+    <n v="2230"/>
   </r>
   <r>
     <x v="44"/>
-    <n v="39465"/>
+    <n v="2230"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2D2589E-5448-4309-B447-87524BC3919F}" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2D2589E-5448-4309-B447-87524BC3919F}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
-      <items count="46">
+      <items count="91">
+        <item m="1" x="50"/>
+        <item m="1" x="76"/>
+        <item m="1" x="57"/>
+        <item m="1" x="83"/>
+        <item m="1" x="64"/>
+        <item m="1" x="45"/>
+        <item m="1" x="71"/>
+        <item m="1" x="53"/>
+        <item m="1" x="79"/>
+        <item m="1" x="60"/>
+        <item m="1" x="86"/>
+        <item m="1" x="67"/>
+        <item m="1" x="48"/>
+        <item m="1" x="74"/>
+        <item m="1" x="55"/>
+        <item m="1" x="81"/>
+        <item m="1" x="62"/>
+        <item m="1" x="88"/>
+        <item m="1" x="69"/>
+        <item m="1" x="51"/>
+        <item m="1" x="77"/>
+        <item m="1" x="58"/>
+        <item m="1" x="84"/>
+        <item m="1" x="65"/>
+        <item m="1" x="46"/>
+        <item m="1" x="72"/>
+        <item m="1" x="54"/>
+        <item m="1" x="80"/>
+        <item m="1" x="61"/>
+        <item m="1" x="87"/>
+        <item m="1" x="68"/>
+        <item m="1" x="49"/>
+        <item m="1" x="75"/>
+        <item m="1" x="56"/>
+        <item m="1" x="82"/>
+        <item m="1" x="63"/>
+        <item m="1" x="89"/>
+        <item m="1" x="70"/>
+        <item m="1" x="52"/>
+        <item m="1" x="78"/>
+        <item m="1" x="59"/>
+        <item m="1" x="85"/>
+        <item m="1" x="66"/>
+        <item m="1" x="47"/>
+        <item m="1" x="73"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -1639,139 +1726,139 @@
   </rowFields>
   <rowItems count="46">
     <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="89"/>
     </i>
     <i t="grand">
       <x/>
@@ -2103,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFEDA9C-0EF9-45EF-978A-A0A01B054E63}">
-  <dimension ref="B1:S52"/>
+  <dimension ref="B1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,47 +2201,29 @@
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1">
-        <v>104.5</v>
+        <v>169.75</v>
       </c>
       <c r="F1">
-        <v>24.6</v>
-      </c>
-      <c r="G1">
-        <v>50.05</v>
-      </c>
-      <c r="H1">
-        <v>23.4</v>
-      </c>
-      <c r="S1">
-        <v>3774</v>
-      </c>
-    </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -2162,59 +2231,32 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10800</v>
+        <v>27600</v>
       </c>
       <c r="F4">
-        <v>10400</v>
-      </c>
-      <c r="G4">
-        <v>10900</v>
-      </c>
-      <c r="H4">
-        <v>10550</v>
-      </c>
-      <c r="S4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+        <v>27700</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>75</v>
-      </c>
-      <c r="G5">
-        <v>75</v>
-      </c>
-      <c r="H5">
-        <v>75</v>
-      </c>
-      <c r="S5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -2222,19 +2264,10 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
         <v>1</v>
       </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -2242,1353 +2275,813 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>10300</v>
+        <v>27200</v>
       </c>
       <c r="C8">
-        <f>SUM(E8:H8)</f>
-        <v>-39285</v>
+        <f t="shared" ref="C8:C52" si="0">SUM(E8:F8)</f>
+        <v>-1790</v>
       </c>
       <c r="E8">
         <f>(IF(AND(E$2="Sell",E$3="CE"),E$1-MAX(0,$B8-E$4),IF(AND(E$2="Buy",E$3="CE"),MAX(0,$B8-E$4)-E$1,IF(AND(E$2="Sell",E$3="PE"),E$1-MAX(0,E$4-$B8),IF(AND(E$2="Buy",E$3="PE"),E$1-MAX(0,E$4-$B8),"Wrong"))))*E$5*E$6)</f>
-        <v>7837.5</v>
+        <v>-6790</v>
       </c>
       <c r="F8">
         <f>(IF(AND(F$2="Sell",F$3="CE"),F$1-MAX(0,$B8-F$4),IF(AND(F$2="Buy",F$3="CE"),MAX(0,$B8-F$4)-F$1,IF(AND(F$2="Sell",F$3="PE"),F$1-MAX(0,F$4-$B8),IF(AND(F$2="Buy",F$3="PE"),F$1-MAX(0,F$4-$B8),"Wrong"))))*F$5*F$6)</f>
-        <v>-22620</v>
-      </c>
-      <c r="G8">
-        <f>(IF(AND(G$2="Sell",G$3="CE"),G$1-MAX(0,$B8-G$4),IF(AND(G$2="Buy",G$3="CE"),MAX(0,$B8-G$4)-G$1,IF(AND(G$2="Sell",G$3="PE"),G$1-MAX(0,G$4-$B8),IF(AND(G$2="Buy",G$3="PE"),G$1-MAX(0,G$4-$B8),"Wrong"))))*G$5*G$6)</f>
-        <v>-7507.5</v>
-      </c>
-      <c r="H8">
-        <f>(IF(AND(H$2="Sell",H$3="CE"),H$1-MAX(0,$B8-H$4),IF(AND(H$2="Buy",H$3="CE"),MAX(0,$B8-H$4)-H$1,IF(AND(H$2="Sell",H$3="PE"),H$1-MAX(0,H$4-$B8),IF(AND(H$2="Buy",H$3="PE"),H$1-MAX(0,H$4-$B8),"Wrong"))))*H$5*H$6)</f>
-        <v>-16995</v>
-      </c>
-      <c r="S8">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B8-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B8-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B8),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B8),"Wrong"))))*S$5*S$6)</f>
-        <v>-35550</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>B8+25</f>
-        <v>10325</v>
+        <v>27225</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C52" si="0">SUM(E9:H9)</f>
-        <v>-29910</v>
+        <f t="shared" si="0"/>
+        <v>-1790</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:H52" si="1">(IF(AND(E$2="Sell",E$3="CE"),E$1-MAX(0,$B9-E$4),IF(AND(E$2="Buy",E$3="CE"),MAX(0,$B9-E$4)-E$1,IF(AND(E$2="Sell",E$3="PE"),E$1-MAX(0,E$4-$B9),IF(AND(E$2="Buy",E$3="PE"),E$1-MAX(0,E$4-$B9),"Wrong"))))*E$5*E$6)</f>
-        <v>7837.5</v>
+        <f t="shared" ref="E9:F52" si="1">(IF(AND(E$2="Sell",E$3="CE"),E$1-MAX(0,$B9-E$4),IF(AND(E$2="Buy",E$3="CE"),MAX(0,$B9-E$4)-E$1,IF(AND(E$2="Sell",E$3="PE"),E$1-MAX(0,E$4-$B9),IF(AND(E$2="Buy",E$3="PE"),E$1-MAX(0,E$4-$B9),"Wrong"))))*E$5*E$6)</f>
+        <v>-6790</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>-15120</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>-15120</v>
-      </c>
-      <c r="S9">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B9-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B9-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B9),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B9),"Wrong"))))*S$5*S$6)</f>
-        <v>-33675</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" ref="B10:B52" si="2">B9+25</f>
-        <v>10350</v>
+        <v>27250</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>-20535</v>
+        <v>-1790</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>7837.5</v>
+        <v>-6790</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>-7620</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>-13245</v>
-      </c>
-      <c r="S10">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B10-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B10-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B10),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B10),"Wrong"))))*S$5*S$6)</f>
-        <v>-31800</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" si="2"/>
-        <v>10375</v>
+        <v>27275</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>-11160</v>
+        <v>-1790</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>7837.5</v>
+        <v>-6790</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>-119.99999999999957</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>-11370</v>
-      </c>
-      <c r="S11">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B11-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B11-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B11),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B11),"Wrong"))))*S$5*S$6)</f>
-        <v>-29925</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" si="2"/>
-        <v>10400</v>
+        <v>27300</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>-1785</v>
+        <v>-1790</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>7837.5</v>
+        <v>-6790</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>-9495</v>
-      </c>
-      <c r="S12">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B12-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B12-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B12),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B12),"Wrong"))))*S$5*S$6)</f>
-        <v>-28050</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="2"/>
-        <v>10425</v>
+        <v>27325</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>-1790</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>7837.5</v>
+        <v>-6790</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>-7620</v>
-      </c>
-      <c r="S13">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B13-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B13-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B13),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B13),"Wrong"))))*S$5*S$6)</f>
-        <v>-26175</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="2"/>
-        <v>10450</v>
+        <v>27350</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>1965</v>
+        <v>-1790</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>7837.5</v>
+        <v>-6790</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>-5745</v>
-      </c>
-      <c r="S14">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B14-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B14-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B14),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B14),"Wrong"))))*S$5*S$6)</f>
-        <v>-24300</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" si="2"/>
-        <v>10475</v>
+        <v>27375</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>3840</v>
+        <v>-1790</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>7837.5</v>
+        <v>-6790</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>-3870</v>
-      </c>
-      <c r="S15">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B15-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B15-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B15),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B15),"Wrong"))))*S$5*S$6)</f>
-        <v>-22425</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="2"/>
-        <v>10500</v>
+        <v>27400</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>5715</v>
+        <v>-1790</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>7837.5</v>
+        <v>-6790</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>-1995</v>
-      </c>
-      <c r="S16">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B16-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B16-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B16),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B16),"Wrong"))))*S$5*S$6)</f>
-        <v>-20550</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="2"/>
-        <v>10525</v>
+        <v>27425</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>7590</v>
+        <v>-1790</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>7837.5</v>
+        <v>-6790</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>-120.00000000000011</v>
-      </c>
-      <c r="S17">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B17-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B17-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B17),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B17),"Wrong"))))*S$5*S$6)</f>
-        <v>-18675</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="2"/>
-        <v>10550</v>
+        <v>27450</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>9465</v>
+        <v>-1790</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>7837.5</v>
+        <v>-6790</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S18">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B18-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B18-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B18),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B18),"Wrong"))))*S$5*S$6)</f>
-        <v>-16800</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="2"/>
-        <v>10575</v>
+        <v>27475</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>9465</v>
+        <v>-1790</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>7837.5</v>
+        <v>-6790</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S19">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B19-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B19-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B19),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B19),"Wrong"))))*S$5*S$6)</f>
-        <v>-14925</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" si="2"/>
-        <v>10600</v>
+        <v>27500</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>9465</v>
+        <v>-1790</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>7837.5</v>
+        <v>-6790</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S20">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B20-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B20-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B20),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B20),"Wrong"))))*S$5*S$6)</f>
-        <v>-13050</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" si="2"/>
-        <v>10625</v>
+        <v>27525</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>9465</v>
+        <v>-1790</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>7837.5</v>
+        <v>-6790</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S21">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B21-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B21-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B21),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B21),"Wrong"))))*S$5*S$6)</f>
-        <v>-11175</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="2"/>
-        <v>10650</v>
+        <v>27550</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>9465</v>
+        <v>-1790</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>7837.5</v>
+        <v>-6790</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S22">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B22-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B22-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B22),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B22),"Wrong"))))*S$5*S$6)</f>
-        <v>-9300</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="2"/>
-        <v>10675</v>
+        <v>27575</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>9465</v>
+        <v>-1790</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>7837.5</v>
+        <v>-6790</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S23">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B23-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B23-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B23),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B23),"Wrong"))))*S$5*S$6)</f>
-        <v>-7425</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" si="2"/>
-        <v>10700</v>
+        <v>27600</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>9465</v>
+        <v>-1790</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>7837.5</v>
+        <v>-6790</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S24">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B24-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B24-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B24),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B24),"Wrong"))))*S$5*S$6)</f>
-        <v>-5550</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="2"/>
-        <v>10725</v>
+        <v>27625</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>9465</v>
+        <v>-790</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>7837.5</v>
+        <v>-5790</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S25">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B25-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B25-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B25),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B25),"Wrong"))))*S$5*S$6)</f>
-        <v>-3675</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="2"/>
-        <v>10750</v>
+        <v>27650</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>9465</v>
+        <v>210</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>7837.5</v>
+        <v>-4790</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S26">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B26-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B26-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B26),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B26),"Wrong"))))*S$5*S$6)</f>
-        <v>-1800</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="2"/>
-        <v>10775</v>
+        <v>27675</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>9465</v>
+        <v>1210</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>7837.5</v>
+        <v>-3790</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S27">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B27-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B27-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B27),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B27),"Wrong"))))*S$5*S$6)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="2"/>
-        <v>10800</v>
+        <v>27700</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>9465</v>
+        <v>2210</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>7837.5</v>
+        <v>-2790</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S28">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B28-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B28-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B28),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B28),"Wrong"))))*S$5*S$6)</f>
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="2"/>
-        <v>10825</v>
+        <v>27725</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>7590</v>
+        <v>2210</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>5962.5</v>
+        <v>-1790</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S29">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B29-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B29-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B29),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B29),"Wrong"))))*S$5*S$6)</f>
-        <v>3825</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="2"/>
-        <v>10850</v>
+        <v>27750</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>5715</v>
+        <v>2210</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>4087.5</v>
+        <v>-790</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S30">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B30-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B30-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B30),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B30),"Wrong"))))*S$5*S$6)</f>
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="2"/>
-        <v>10875</v>
+        <v>27775</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>3840</v>
+        <v>2210</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>2212.5</v>
+        <v>210</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S31">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B31-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B31-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B31),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B31),"Wrong"))))*S$5*S$6)</f>
-        <v>7575</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="2"/>
-        <v>10900</v>
+        <v>27800</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>1965</v>
+        <v>2210</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>337.5</v>
+        <v>1210</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
-        <v>-7507.5</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S32">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B32-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B32-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B32),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B32),"Wrong"))))*S$5*S$6)</f>
-        <v>9450</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="2"/>
-        <v>10925</v>
+        <v>27825</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>3840.0000000000005</v>
+        <v>2210</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>-1537.5</v>
+        <v>2210</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>-3757.4999999999995</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S33">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B33-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B33-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B33),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B33),"Wrong"))))*S$5*S$6)</f>
-        <v>11325</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="2"/>
-        <v>10950</v>
+        <v>27850</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>5715</v>
+        <v>2210</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>-3412.5</v>
+        <v>3210</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>-7.4999999999995737</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S34">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B34-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B34-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B34),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B34),"Wrong"))))*S$5*S$6)</f>
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="2"/>
-        <v>10975</v>
+        <v>27875</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>7590</v>
+        <v>2210</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>-5287.5</v>
+        <v>4210</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>3742.5000000000005</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S35">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B35-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B35-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B35),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B35),"Wrong"))))*S$5*S$6)</f>
-        <v>15075</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="2"/>
-        <v>11000</v>
+        <v>27900</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>9465</v>
+        <v>2210</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>-7162.5</v>
+        <v>5210</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
-        <v>7492.5</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S36">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B36-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B36-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B36),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B36),"Wrong"))))*S$5*S$6)</f>
-        <v>16950</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="2"/>
-        <v>11025</v>
+        <v>27925</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>11340</v>
+        <v>2210</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
-        <v>-9037.5</v>
+        <v>6210</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
-        <v>11242.5</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S37">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B37-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B37-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B37),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B37),"Wrong"))))*S$5*S$6)</f>
-        <v>18825</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="2"/>
-        <v>11050</v>
+        <v>27950</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>13215</v>
+        <v>2210</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>-10912.5</v>
+        <v>7210</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
-        <v>14992.5</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S38">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B38-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B38-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B38),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B38),"Wrong"))))*S$5*S$6)</f>
-        <v>20700</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="2"/>
-        <v>11075</v>
+        <v>27975</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>15090</v>
+        <v>2210</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>-12787.5</v>
+        <v>8210</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
-        <v>18742.5</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S39">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B39-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B39-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B39),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B39),"Wrong"))))*S$5*S$6)</f>
-        <v>22575</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="2"/>
-        <v>11100</v>
+        <v>28000</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>16965</v>
+        <v>2210</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
-        <v>-14662.5</v>
+        <v>9210</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
-        <v>22492.5</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S40">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B40-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B40-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B40),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B40),"Wrong"))))*S$5*S$6)</f>
-        <v>24450</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-7000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" si="2"/>
-        <v>11125</v>
+        <v>28025</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>18840</v>
+        <v>2210</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
-        <v>-16537.5</v>
+        <v>10210</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="1"/>
-        <v>26242.5</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S41">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B41-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B41-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B41),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B41),"Wrong"))))*S$5*S$6)</f>
-        <v>26325</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-8000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="2"/>
-        <v>11150</v>
+        <v>28050</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>20715</v>
+        <v>2210</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>-18412.5</v>
+        <v>11210</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
-        <v>29992.5</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S42">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B42-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B42-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B42),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B42),"Wrong"))))*S$5*S$6)</f>
+        <v>-9000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>28075</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>2210</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>12210</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" si="2"/>
+        <v>28100</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>2210</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>13210</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>-11000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" si="2"/>
+        <v>28125</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>2210</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>14210</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>-12000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" si="2"/>
+        <v>28150</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>2210</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>15210</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>-13000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" si="2"/>
+        <v>28175</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>2210</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>16210</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>-14000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" si="2"/>
         <v>28200</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <f t="shared" si="2"/>
-        <v>11175</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>22590</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>-20287.5</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="1"/>
-        <v>33742.5</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S43">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B43-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B43-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B43),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B43),"Wrong"))))*S$5*S$6)</f>
-        <v>30075</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <f t="shared" si="2"/>
-        <v>11200</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>24465</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>-22162.5</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
-        <v>37492.5</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S44">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B44-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B44-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B44),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B44),"Wrong"))))*S$5*S$6)</f>
-        <v>31950</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <f t="shared" si="2"/>
-        <v>11225</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>26340</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="1"/>
-        <v>-24037.5</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
-        <v>41242.5</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S45">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B45-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B45-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B45),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B45),"Wrong"))))*S$5*S$6)</f>
-        <v>33825</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <f t="shared" si="2"/>
-        <v>11250</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>28215</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>-25912.5</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="1"/>
-        <v>44992.5</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S46">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B46-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B46-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B46),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B46),"Wrong"))))*S$5*S$6)</f>
-        <v>35700</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <f t="shared" si="2"/>
-        <v>11275</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
-        <v>30090</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="1"/>
-        <v>-27787.5</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="1"/>
-        <v>48742.5</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S47">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B47-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B47-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B47),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B47),"Wrong"))))*S$5*S$6)</f>
-        <v>37575</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <f t="shared" si="2"/>
-        <v>11300</v>
-      </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>31965</v>
+        <v>2210</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
-        <v>-29662.5</v>
+        <v>17210</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="1"/>
-        <v>52492.5</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S48">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B48-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B48-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B48),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B48),"Wrong"))))*S$5*S$6)</f>
-        <v>39450</v>
-      </c>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49">
         <f t="shared" si="2"/>
-        <v>11325</v>
+        <v>28225</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>2210</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
-        <v>-31537.5</v>
+        <v>18210</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="1"/>
-        <v>56242.5</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S49">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B49-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B49-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B49),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B49),"Wrong"))))*S$5*S$6)</f>
-        <v>41325</v>
-      </c>
-    </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-16000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50">
         <f t="shared" si="2"/>
-        <v>11350</v>
+        <v>28250</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>35715</v>
+        <v>2210</v>
       </c>
       <c r="E50">
         <f t="shared" si="1"/>
-        <v>-33412.5</v>
+        <v>19210</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="1"/>
-        <v>59992.5</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S50">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B50-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B50-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B50),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B50),"Wrong"))))*S$5*S$6)</f>
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-17000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51">
         <f t="shared" si="2"/>
-        <v>11375</v>
+        <v>28275</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>37590</v>
+        <v>2210</v>
       </c>
       <c r="E51">
         <f t="shared" si="1"/>
-        <v>-35287.5</v>
+        <v>20210</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="1"/>
-        <v>63742.5</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S51">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B51-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B51-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B51),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B51),"Wrong"))))*S$5*S$6)</f>
-        <v>45075</v>
-      </c>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-18000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52">
         <f t="shared" si="2"/>
-        <v>11400</v>
+        <v>28300</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>39465</v>
+        <v>2210</v>
       </c>
       <c r="E52">
         <f t="shared" si="1"/>
-        <v>-37162.5</v>
+        <v>21210</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="1"/>
-        <v>67492.5</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="1"/>
-        <v>1755</v>
-      </c>
-      <c r="S52">
-        <f>(IF(AND(S$2="Sell",S$3="CE"),S$1-MAX(0,$B52-S$4),IF(AND(S$2="Buy",S$3="CE"),MAX(0,$B52-S$4)-S$1,IF(AND(S$2="Sell",S$3="PE"),S$1-MAX(0,S$4-$B52),IF(AND(S$2="Buy",S$3="PE"),S$1-MAX(0,S$4-$B52),"Wrong"))))*S$5*S$6)</f>
-        <v>46950</v>
+        <v>-19000</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +3093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5091B4-8167-4CC5-BB8C-31C4A4CC6B90}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3613,367 +3108,367 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>10300</v>
+        <v>27200</v>
       </c>
       <c r="B2" s="1">
-        <v>-39285</v>
+        <v>-1770</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>10325</v>
+        <v>27225</v>
       </c>
       <c r="B3" s="1">
-        <v>-29910</v>
+        <v>-1770</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>10350</v>
+        <v>27250</v>
       </c>
       <c r="B4" s="1">
-        <v>-20535</v>
+        <v>-1770</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>10375</v>
+        <v>27275</v>
       </c>
       <c r="B5" s="1">
-        <v>-11160</v>
+        <v>-1770</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>10400</v>
+        <v>27300</v>
       </c>
       <c r="B6" s="1">
-        <v>-1785</v>
+        <v>-1770</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>10425</v>
+        <v>27325</v>
       </c>
       <c r="B7" s="1">
-        <v>90</v>
+        <v>-1770</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>10450</v>
+        <v>27350</v>
       </c>
       <c r="B8" s="1">
-        <v>1965</v>
+        <v>-1770</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>10475</v>
+        <v>27375</v>
       </c>
       <c r="B9" s="1">
-        <v>3840</v>
+        <v>-1770</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>10500</v>
+        <v>27400</v>
       </c>
       <c r="B10" s="1">
-        <v>5715</v>
+        <v>-1770</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>10525</v>
+        <v>27425</v>
       </c>
       <c r="B11" s="1">
-        <v>7590</v>
+        <v>-1770</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>10550</v>
+        <v>27450</v>
       </c>
       <c r="B12" s="1">
-        <v>9465</v>
+        <v>-1770</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>10575</v>
+        <v>27475</v>
       </c>
       <c r="B13" s="1">
-        <v>9465</v>
+        <v>-1770</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>10600</v>
+        <v>27500</v>
       </c>
       <c r="B14" s="1">
-        <v>9465</v>
+        <v>-1770</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>10625</v>
+        <v>27525</v>
       </c>
       <c r="B15" s="1">
-        <v>9465</v>
+        <v>-1770</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>10650</v>
+        <v>27550</v>
       </c>
       <c r="B16" s="1">
-        <v>9465</v>
+        <v>-1770</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>10675</v>
+        <v>27575</v>
       </c>
       <c r="B17" s="1">
-        <v>9465</v>
+        <v>-1770</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>10700</v>
+        <v>27600</v>
       </c>
       <c r="B18" s="1">
-        <v>9465</v>
+        <v>-1770</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>10725</v>
+        <v>27625</v>
       </c>
       <c r="B19" s="1">
-        <v>9465</v>
+        <v>-770</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>10750</v>
+        <v>27650</v>
       </c>
       <c r="B20" s="1">
-        <v>9465</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>10775</v>
+        <v>27675</v>
       </c>
       <c r="B21" s="1">
-        <v>9465</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>10800</v>
+        <v>27700</v>
       </c>
       <c r="B22" s="1">
-        <v>9465</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>10825</v>
+        <v>27725</v>
       </c>
       <c r="B23" s="1">
-        <v>7590</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>10850</v>
+        <v>27750</v>
       </c>
       <c r="B24" s="1">
-        <v>5715</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>10875</v>
+        <v>27775</v>
       </c>
       <c r="B25" s="1">
-        <v>3840</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>10900</v>
+        <v>27800</v>
       </c>
       <c r="B26" s="1">
-        <v>1965</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>10925</v>
+        <v>27825</v>
       </c>
       <c r="B27" s="1">
-        <v>3840.0000000000005</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>10950</v>
+        <v>27850</v>
       </c>
       <c r="B28" s="1">
-        <v>5715</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>10975</v>
+        <v>27875</v>
       </c>
       <c r="B29" s="1">
-        <v>7590</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>11000</v>
+        <v>27900</v>
       </c>
       <c r="B30" s="1">
-        <v>9465</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>11025</v>
+        <v>27925</v>
       </c>
       <c r="B31" s="1">
-        <v>11340</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>11050</v>
+        <v>27950</v>
       </c>
       <c r="B32" s="1">
-        <v>13215</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>11075</v>
+        <v>27975</v>
       </c>
       <c r="B33" s="1">
-        <v>15090</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>11100</v>
+        <v>28000</v>
       </c>
       <c r="B34" s="1">
-        <v>16965</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>11125</v>
+        <v>28025</v>
       </c>
       <c r="B35" s="1">
-        <v>18840</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>11150</v>
+        <v>28050</v>
       </c>
       <c r="B36" s="1">
-        <v>20715</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>11175</v>
+        <v>28075</v>
       </c>
       <c r="B37" s="1">
-        <v>22590</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>11200</v>
+        <v>28100</v>
       </c>
       <c r="B38" s="1">
-        <v>24465</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>11225</v>
+        <v>28125</v>
       </c>
       <c r="B39" s="1">
-        <v>26340</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>11250</v>
+        <v>28150</v>
       </c>
       <c r="B40" s="1">
-        <v>28215</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>11275</v>
+        <v>28175</v>
       </c>
       <c r="B41" s="1">
-        <v>30090</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>11300</v>
+        <v>28200</v>
       </c>
       <c r="B42" s="1">
-        <v>31965</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>11325</v>
+        <v>28225</v>
       </c>
       <c r="B43" s="1">
-        <v>33840</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>11350</v>
+        <v>28250</v>
       </c>
       <c r="B44" s="1">
-        <v>35715</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>11375</v>
+        <v>28275</v>
       </c>
       <c r="B45" s="1">
-        <v>37590</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>11400</v>
+        <v>28300</v>
       </c>
       <c r="B46" s="1">
-        <v>39465</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3981,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="1">
-        <v>472800</v>
+        <v>26350</v>
       </c>
     </row>
   </sheetData>

--- a/PayoffMatrix/src/test/resources/Position_PL_calculation.xlsx
+++ b/PayoffMatrix/src/test/resources/Position_PL_calculation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikas.Badami\git\vizerium\PayoffMatrix\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{00C49797-71C5-42C2-8864-63BE6C526178}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{85E58491-5C41-4433-AB47-B6F87205F840}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{1B469E7B-7A84-4AB3-8EB5-1B063D773CD7}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Open Positions" sheetId="6" r:id="rId1"/>
     <sheet name="Graph Output" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <pivotCaches>
     <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
@@ -24,12 +24,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Strike</t>
   </si>
@@ -71,6 +76,9 @@
   </si>
   <si>
     <t>Sum of Payoff</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -377,139 +385,139 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>-1770</c:v>
+                  <c:v>-7580</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1770</c:v>
+                  <c:v>-7580</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1770</c:v>
+                  <c:v>-7580</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1770</c:v>
+                  <c:v>-7580</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1770</c:v>
+                  <c:v>-7580</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1770</c:v>
+                  <c:v>-7580</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1770</c:v>
+                  <c:v>-7580</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1770</c:v>
+                  <c:v>-7580</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1770</c:v>
+                  <c:v>-7580</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1770</c:v>
+                  <c:v>-7580</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1770</c:v>
+                  <c:v>-7580</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1770</c:v>
+                  <c:v>-7580</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1770</c:v>
+                  <c:v>-7580</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1770</c:v>
+                  <c:v>-7580</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1770</c:v>
+                  <c:v>-7580</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1770</c:v>
+                  <c:v>-7580</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1770</c:v>
+                  <c:v>-7580</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-770</c:v>
+                  <c:v>-5580</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>230</c:v>
+                  <c:v>-3580</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1230</c:v>
+                  <c:v>-1580</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2230</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1324,13 +1332,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Vikas.Badami" refreshedDate="43309.506596296298" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45" xr:uid="{7AD20C18-41DF-4398-8684-55DB974BAB58}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Vikas.Badami" refreshedDate="43371.540755787035" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45" xr:uid="{7AD20C18-41DF-4398-8684-55DB974BAB58}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B7:C52" sheet="Open Positions"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Spot" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10300" maxValue="28300" count="90">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10300" maxValue="28300" count="130">
         <n v="27200"/>
         <n v="27225"/>
         <n v="27250"/>
@@ -1376,55 +1384,95 @@
         <n v="28250"/>
         <n v="28275"/>
         <n v="28300"/>
+        <n v="26875" u="1"/>
         <n v="10425" u="1"/>
         <n v="10900" u="1"/>
+        <n v="27050" u="1"/>
         <n v="11375" u="1"/>
+        <n v="26275" u="1"/>
         <n v="10600" u="1"/>
+        <n v="26450" u="1"/>
         <n v="11075" u="1"/>
+        <n v="26625" u="1"/>
         <n v="10300" u="1"/>
         <n v="10775" u="1"/>
+        <n v="26800" u="1"/>
         <n v="11250" u="1"/>
+        <n v="26975" u="1"/>
         <n v="10475" u="1"/>
+        <n v="26200" u="1"/>
         <n v="10950" u="1"/>
+        <n v="27150" u="1"/>
+        <n v="26375" u="1"/>
         <n v="10650" u="1"/>
+        <n v="26550" u="1"/>
         <n v="11125" u="1"/>
+        <n v="26725" u="1"/>
         <n v="10350" u="1"/>
         <n v="10825" u="1"/>
+        <n v="26900" u="1"/>
         <n v="11300" u="1"/>
+        <n v="27075" u="1"/>
         <n v="10525" u="1"/>
+        <n v="26300" u="1"/>
         <n v="11000" u="1"/>
+        <n v="26475" u="1"/>
         <n v="10700" u="1"/>
+        <n v="26650" u="1"/>
         <n v="11175" u="1"/>
+        <n v="26825" u="1"/>
         <n v="10400" u="1"/>
         <n v="10875" u="1"/>
+        <n v="27000" u="1"/>
         <n v="11350" u="1"/>
+        <n v="26225" u="1"/>
+        <n v="27175" u="1"/>
         <n v="10575" u="1"/>
+        <n v="26400" u="1"/>
         <n v="11050" u="1"/>
+        <n v="26575" u="1"/>
         <n v="10750" u="1"/>
+        <n v="26750" u="1"/>
         <n v="11225" u="1"/>
+        <n v="26925" u="1"/>
         <n v="10450" u="1"/>
         <n v="10925" u="1"/>
+        <n v="27100" u="1"/>
         <n v="11400" u="1"/>
+        <n v="26325" u="1"/>
         <n v="10625" u="1"/>
+        <n v="26500" u="1"/>
         <n v="11100" u="1"/>
+        <n v="26675" u="1"/>
         <n v="10325" u="1"/>
         <n v="10800" u="1"/>
+        <n v="26850" u="1"/>
         <n v="11275" u="1"/>
+        <n v="27025" u="1"/>
         <n v="10500" u="1"/>
+        <n v="26250" u="1"/>
         <n v="10975" u="1"/>
+        <n v="26425" u="1"/>
         <n v="10675" u="1"/>
+        <n v="26600" u="1"/>
         <n v="11150" u="1"/>
+        <n v="26775" u="1"/>
         <n v="10375" u="1"/>
         <n v="10850" u="1"/>
+        <n v="26950" u="1"/>
         <n v="11325" u="1"/>
+        <n v="27125" u="1"/>
         <n v="10550" u="1"/>
+        <n v="26350" u="1"/>
         <n v="11025" u="1"/>
+        <n v="26525" u="1"/>
         <n v="10725" u="1"/>
+        <n v="26700" u="1"/>
         <n v="11200" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Payoff" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-1770" maxValue="2230"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-7580" maxValue="420"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1439,183 +1487,183 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="45">
   <r>
     <x v="0"/>
-    <n v="-1770"/>
+    <n v="-7580"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="-1770"/>
+    <n v="-7580"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="-1770"/>
+    <n v="-7580"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="-1770"/>
+    <n v="-7580"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="-1770"/>
+    <n v="-7580"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="-1770"/>
+    <n v="-7580"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="-1770"/>
+    <n v="-7580"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="-1770"/>
+    <n v="-7580"/>
   </r>
   <r>
     <x v="8"/>
-    <n v="-1770"/>
+    <n v="-7580"/>
   </r>
   <r>
     <x v="9"/>
-    <n v="-1770"/>
+    <n v="-7580"/>
   </r>
   <r>
     <x v="10"/>
-    <n v="-1770"/>
+    <n v="-7580"/>
   </r>
   <r>
     <x v="11"/>
-    <n v="-1770"/>
+    <n v="-7580"/>
   </r>
   <r>
     <x v="12"/>
-    <n v="-1770"/>
+    <n v="-7580"/>
   </r>
   <r>
     <x v="13"/>
-    <n v="-1770"/>
+    <n v="-7580"/>
   </r>
   <r>
     <x v="14"/>
-    <n v="-1770"/>
+    <n v="-7580"/>
   </r>
   <r>
     <x v="15"/>
-    <n v="-1770"/>
+    <n v="-7580"/>
   </r>
   <r>
     <x v="16"/>
-    <n v="-1770"/>
+    <n v="-7580"/>
   </r>
   <r>
     <x v="17"/>
-    <n v="-770"/>
+    <n v="-5580"/>
   </r>
   <r>
     <x v="18"/>
-    <n v="230"/>
+    <n v="-3580"/>
   </r>
   <r>
     <x v="19"/>
-    <n v="1230"/>
+    <n v="-1580"/>
   </r>
   <r>
     <x v="20"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="21"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="22"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="23"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="24"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="25"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="26"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="27"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="28"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="29"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="30"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="31"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="32"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="33"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="34"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="35"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="36"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="37"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="38"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="39"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="40"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="41"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="42"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="43"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
   <r>
     <x v="44"/>
-    <n v="2230"/>
+    <n v="420"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -1625,52 +1673,52 @@
   <location ref="A1:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
-      <items count="91">
-        <item m="1" x="50"/>
+      <items count="131">
+        <item m="1" x="55"/>
+        <item m="1" x="105"/>
+        <item m="1" x="69"/>
+        <item m="1" x="118"/>
+        <item m="1" x="82"/>
+        <item m="1" x="46"/>
+        <item m="1" x="96"/>
+        <item m="1" x="60"/>
+        <item m="1" x="110"/>
+        <item m="1" x="74"/>
+        <item m="1" x="123"/>
+        <item m="1" x="88"/>
+        <item m="1" x="51"/>
+        <item m="1" x="101"/>
+        <item m="1" x="65"/>
+        <item m="1" x="114"/>
+        <item m="1" x="78"/>
+        <item m="1" x="127"/>
+        <item m="1" x="92"/>
+        <item m="1" x="56"/>
+        <item m="1" x="106"/>
+        <item m="1" x="70"/>
+        <item m="1" x="119"/>
+        <item m="1" x="83"/>
+        <item m="1" x="47"/>
+        <item m="1" x="97"/>
+        <item m="1" x="62"/>
+        <item m="1" x="112"/>
         <item m="1" x="76"/>
-        <item m="1" x="57"/>
-        <item m="1" x="83"/>
-        <item m="1" x="64"/>
-        <item m="1" x="45"/>
-        <item m="1" x="71"/>
+        <item m="1" x="125"/>
+        <item m="1" x="90"/>
         <item m="1" x="53"/>
-        <item m="1" x="79"/>
-        <item m="1" x="60"/>
-        <item m="1" x="86"/>
+        <item m="1" x="103"/>
         <item m="1" x="67"/>
-        <item m="1" x="48"/>
-        <item m="1" x="74"/>
-        <item m="1" x="55"/>
-        <item m="1" x="81"/>
-        <item m="1" x="62"/>
-        <item m="1" x="88"/>
-        <item m="1" x="69"/>
-        <item m="1" x="51"/>
-        <item m="1" x="77"/>
+        <item m="1" x="116"/>
+        <item m="1" x="80"/>
+        <item m="1" x="129"/>
+        <item m="1" x="94"/>
         <item m="1" x="58"/>
-        <item m="1" x="84"/>
-        <item m="1" x="65"/>
-        <item m="1" x="46"/>
+        <item m="1" x="108"/>
         <item m="1" x="72"/>
-        <item m="1" x="54"/>
-        <item m="1" x="80"/>
-        <item m="1" x="61"/>
-        <item m="1" x="87"/>
-        <item m="1" x="68"/>
+        <item m="1" x="121"/>
+        <item m="1" x="85"/>
         <item m="1" x="49"/>
-        <item m="1" x="75"/>
-        <item m="1" x="56"/>
-        <item m="1" x="82"/>
-        <item m="1" x="63"/>
-        <item m="1" x="89"/>
-        <item m="1" x="70"/>
-        <item m="1" x="52"/>
-        <item m="1" x="78"/>
-        <item m="1" x="59"/>
-        <item m="1" x="85"/>
-        <item m="1" x="66"/>
-        <item m="1" x="47"/>
-        <item m="1" x="73"/>
+        <item m="1" x="99"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -1716,6 +1764,46 @@
         <item x="42"/>
         <item x="43"/>
         <item x="44"/>
+        <item m="1" x="61"/>
+        <item m="1" x="86"/>
+        <item m="1" x="111"/>
+        <item m="1" x="50"/>
+        <item m="1" x="75"/>
+        <item m="1" x="100"/>
+        <item m="1" x="124"/>
+        <item m="1" x="64"/>
+        <item m="1" x="89"/>
+        <item m="1" x="113"/>
+        <item m="1" x="52"/>
+        <item m="1" x="77"/>
+        <item m="1" x="102"/>
+        <item m="1" x="126"/>
+        <item m="1" x="66"/>
+        <item m="1" x="91"/>
+        <item m="1" x="115"/>
+        <item m="1" x="54"/>
+        <item m="1" x="79"/>
+        <item m="1" x="104"/>
+        <item m="1" x="128"/>
+        <item m="1" x="68"/>
+        <item m="1" x="93"/>
+        <item m="1" x="117"/>
+        <item m="1" x="57"/>
+        <item m="1" x="81"/>
+        <item m="1" x="107"/>
+        <item m="1" x="45"/>
+        <item m="1" x="71"/>
+        <item m="1" x="95"/>
+        <item m="1" x="120"/>
+        <item m="1" x="59"/>
+        <item m="1" x="84"/>
+        <item m="1" x="109"/>
+        <item m="1" x="48"/>
+        <item m="1" x="73"/>
+        <item m="1" x="98"/>
+        <item m="1" x="122"/>
+        <item m="1" x="63"/>
+        <item m="1" x="87"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2190,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFEDA9C-0EF9-45EF-978A-A0A01B054E63}">
-  <dimension ref="B1:F52"/>
+  <dimension ref="B1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,7 +2289,7 @@
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>4</v>
       </c>
@@ -2211,8 +2299,14 @@
       <c r="F1">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G1">
+        <v>169.75</v>
+      </c>
+      <c r="H1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -2222,8 +2316,14 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -2233,8 +2333,14 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -2244,8 +2350,14 @@
       <c r="F4">
         <v>27700</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>27600</v>
+      </c>
+      <c r="H4">
+        <v>27700</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>8</v>
       </c>
@@ -2255,8 +2367,14 @@
       <c r="F5">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -2266,8 +2384,14 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -2275,813 +2399,1173 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>27200</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C52" si="0">SUM(E8:F8)</f>
-        <v>-1790</v>
+        <f t="shared" ref="C8:C21" si="0">SUM(E8:N8)</f>
+        <v>-7580</v>
       </c>
       <c r="E8">
-        <f>(IF(AND(E$2="Sell",E$3="CE"),E$1-MAX(0,$B8-E$4),IF(AND(E$2="Buy",E$3="CE"),MAX(0,$B8-E$4)-E$1,IF(AND(E$2="Sell",E$3="PE"),E$1-MAX(0,E$4-$B8),IF(AND(E$2="Buy",E$3="PE"),E$1-MAX(0,E$4-$B8),"Wrong"))))*E$5*E$6)</f>
+        <f>(IF(AND(E$2="Sell",E$3="CE"),E$1-MAX(0,$B8-E$4),IF(AND(E$2="Buy",E$3="CE"),MAX(0,$B8-E$4)-E$1,IF(AND(E$2="Sell",E$3="PE"),E$1-MAX(0,E$4-$B8),IF(AND(E$2="Buy",E$3="PE"),MAX(0,E$4-$B8)-E$1,"Wrong"))))*E$5*E$6)</f>
         <v>-6790</v>
       </c>
       <c r="F8">
-        <f>(IF(AND(F$2="Sell",F$3="CE"),F$1-MAX(0,$B8-F$4),IF(AND(F$2="Buy",F$3="CE"),MAX(0,$B8-F$4)-F$1,IF(AND(F$2="Sell",F$3="PE"),F$1-MAX(0,F$4-$B8),IF(AND(F$2="Buy",F$3="PE"),F$1-MAX(0,F$4-$B8),"Wrong"))))*F$5*F$6)</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F8:H52" si="1">(IF(AND(F$2="Sell",F$3="CE"),F$1-MAX(0,$B8-F$4),IF(AND(F$2="Buy",F$3="CE"),MAX(0,$B8-F$4)-F$1,IF(AND(F$2="Sell",F$3="PE"),F$1-MAX(0,F$4-$B8),IF(AND(F$2="Buy",F$3="PE"),MAX(0,F$4-$B8)-F$1,"Wrong"))))*F$5*F$6)</f>
+        <v>5000</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>9210</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>B8+25</f>
         <v>27225</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>-1790</v>
+        <v>-7580</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:F52" si="1">(IF(AND(E$2="Sell",E$3="CE"),E$1-MAX(0,$B9-E$4),IF(AND(E$2="Buy",E$3="CE"),MAX(0,$B9-E$4)-E$1,IF(AND(E$2="Sell",E$3="PE"),E$1-MAX(0,E$4-$B9),IF(AND(E$2="Buy",E$3="PE"),E$1-MAX(0,E$4-$B9),"Wrong"))))*E$5*E$6)</f>
+        <f t="shared" ref="E9:E52" si="2">(IF(AND(E$2="Sell",E$3="CE"),E$1-MAX(0,$B9-E$4),IF(AND(E$2="Buy",E$3="CE"),MAX(0,$B9-E$4)-E$1,IF(AND(E$2="Sell",E$3="PE"),E$1-MAX(0,E$4-$B9),IF(AND(E$2="Buy",E$3="PE"),MAX(0,E$4-$B9)-E$1,"Wrong"))))*E$5*E$6)</f>
         <v>-6790</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>8210</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>-14000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f t="shared" ref="B10:B52" si="2">B9+25</f>
+        <f t="shared" ref="B10:B52" si="3">B9+25</f>
         <v>27250</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>-1790</v>
+        <v>-7580</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6790</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>7210</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-13000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27275</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>-1790</v>
+        <v>-7580</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6790</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>6210</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-12000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27300</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>-1790</v>
+        <v>-7580</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6790</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>5210</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>-11000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27325</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>-1790</v>
+        <v>-7580</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6790</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>4210</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27350</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>-1790</v>
+        <v>-7580</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6790</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>3210</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>-9000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27375</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>-1790</v>
+        <v>-7580</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6790</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>2210</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>-8000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27400</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>-1790</v>
+        <v>-7580</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6790</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1210</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>-7000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27425</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>-1790</v>
+        <v>-7580</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6790</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27450</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>-1790</v>
+        <v>-7580</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6790</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>-790</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27475</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
+        <v>-7580</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>-6790</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
         <v>-1790</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>-6790</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27500</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>-1790</v>
+        <v>-7580</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6790</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>-2790</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27525</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
+        <v>-7580</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>-6790</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>-3790</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" si="3"/>
+        <v>27550</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:C52" si="4">SUM(E22:N22)</f>
+        <v>-7580</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>-6790</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-4790</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" si="3"/>
+        <v>27575</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>-7580</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>-6790</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-5790</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" si="3"/>
+        <v>27600</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>-7580</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>-6790</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" si="3"/>
+        <v>27625</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>-5580</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>-5790</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>27650</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>-3580</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>-4790</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" si="3"/>
+        <v>27675</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>-1580</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>-3790</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" si="3"/>
+        <v>27700</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>-2790</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f t="shared" si="3"/>
+        <v>27725</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
         <v>-1790</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>-6790</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <f t="shared" si="2"/>
-        <v>27550</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>-1790</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>-6790</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <f t="shared" si="2"/>
-        <v>27575</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>-1790</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>-6790</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <f t="shared" si="2"/>
-        <v>27600</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>-1790</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>-6790</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <f t="shared" si="2"/>
-        <v>27625</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f t="shared" si="3"/>
+        <v>27750</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
         <v>-790</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>-5790</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <f t="shared" si="2"/>
-        <v>27650</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f t="shared" si="3"/>
+        <v>27775</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>-4790</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <f t="shared" si="2"/>
-        <v>27675</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f t="shared" si="3"/>
+        <v>27800</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
         <v>1210</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>-3790</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <f t="shared" si="2"/>
-        <v>27700</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f t="shared" si="3"/>
+        <v>27825</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
         <v>2210</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>-2790</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <f t="shared" si="2"/>
-        <v>27725</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>2210</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>-1790</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <f t="shared" si="2"/>
-        <v>27750</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>2210</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>-790</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <f t="shared" si="2"/>
-        <v>27775</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>2210</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <f t="shared" si="2"/>
-        <v>27800</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>2210</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>1210</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <f t="shared" si="2"/>
-        <v>27825</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>2210</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>2210</v>
-      </c>
       <c r="F33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27850</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
-        <v>2210</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3210</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27875</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
-        <v>2210</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4210</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
         <v>-2000</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27900</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
-        <v>2210</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5210</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
         <v>-3000</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27925</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
-        <v>2210</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6210</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
         <v>-4000</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27950</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
-        <v>2210</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7210</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
         <v>-5000</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27975</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
-        <v>2210</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8210</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
         <v>-6000</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28000</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
-        <v>2210</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9210</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
         <v>-7000</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28025</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
-        <v>2210</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10210</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
         <v>-8000</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28050</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
-        <v>2210</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11210</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
         <v>-9000</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28075</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
-        <v>2210</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12210</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28100</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
-        <v>2210</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13210</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
         <v>-11000</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28125</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
-        <v>2210</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14210</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
         <v>-12000</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28150</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
-        <v>2210</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15210</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
         <v>-13000</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28175</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
-        <v>2210</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16210</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
         <v>-14000</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28200</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
-        <v>2210</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17210</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
         <v>-15000</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28225</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
-        <v>2210</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18210</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
         <v>-16000</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28250</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
-        <v>2210</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19210</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
         <v>-17000</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28275</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
-        <v>2210</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20210</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
         <v>-18000</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28300</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
-        <v>2210</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21210</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
         <v>-19000</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>-6790</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -3093,9 +3577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5091B4-8167-4CC5-BB8C-31C4A4CC6B90}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3116,7 +3598,7 @@
         <v>27200</v>
       </c>
       <c r="B2" s="1">
-        <v>-1770</v>
+        <v>-7580</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3124,7 +3606,7 @@
         <v>27225</v>
       </c>
       <c r="B3" s="1">
-        <v>-1770</v>
+        <v>-7580</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3132,7 +3614,7 @@
         <v>27250</v>
       </c>
       <c r="B4" s="1">
-        <v>-1770</v>
+        <v>-7580</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3140,7 +3622,7 @@
         <v>27275</v>
       </c>
       <c r="B5" s="1">
-        <v>-1770</v>
+        <v>-7580</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3148,7 +3630,7 @@
         <v>27300</v>
       </c>
       <c r="B6" s="1">
-        <v>-1770</v>
+        <v>-7580</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3156,7 +3638,7 @@
         <v>27325</v>
       </c>
       <c r="B7" s="1">
-        <v>-1770</v>
+        <v>-7580</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3164,7 +3646,7 @@
         <v>27350</v>
       </c>
       <c r="B8" s="1">
-        <v>-1770</v>
+        <v>-7580</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3172,7 +3654,7 @@
         <v>27375</v>
       </c>
       <c r="B9" s="1">
-        <v>-1770</v>
+        <v>-7580</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3180,7 +3662,7 @@
         <v>27400</v>
       </c>
       <c r="B10" s="1">
-        <v>-1770</v>
+        <v>-7580</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3188,7 +3670,7 @@
         <v>27425</v>
       </c>
       <c r="B11" s="1">
-        <v>-1770</v>
+        <v>-7580</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3196,7 +3678,7 @@
         <v>27450</v>
       </c>
       <c r="B12" s="1">
-        <v>-1770</v>
+        <v>-7580</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3204,7 +3686,7 @@
         <v>27475</v>
       </c>
       <c r="B13" s="1">
-        <v>-1770</v>
+        <v>-7580</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3212,7 +3694,7 @@
         <v>27500</v>
       </c>
       <c r="B14" s="1">
-        <v>-1770</v>
+        <v>-7580</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3220,7 +3702,7 @@
         <v>27525</v>
       </c>
       <c r="B15" s="1">
-        <v>-1770</v>
+        <v>-7580</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3228,7 +3710,7 @@
         <v>27550</v>
       </c>
       <c r="B16" s="1">
-        <v>-1770</v>
+        <v>-7580</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3236,7 +3718,7 @@
         <v>27575</v>
       </c>
       <c r="B17" s="1">
-        <v>-1770</v>
+        <v>-7580</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3244,7 +3726,7 @@
         <v>27600</v>
       </c>
       <c r="B18" s="1">
-        <v>-1770</v>
+        <v>-7580</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3252,7 +3734,7 @@
         <v>27625</v>
       </c>
       <c r="B19" s="1">
-        <v>-770</v>
+        <v>-5580</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3260,7 +3742,7 @@
         <v>27650</v>
       </c>
       <c r="B20" s="1">
-        <v>230</v>
+        <v>-3580</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3268,7 +3750,7 @@
         <v>27675</v>
       </c>
       <c r="B21" s="1">
-        <v>1230</v>
+        <v>-1580</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3276,7 +3758,7 @@
         <v>27700</v>
       </c>
       <c r="B22" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3284,7 +3766,7 @@
         <v>27725</v>
       </c>
       <c r="B23" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3292,7 +3774,7 @@
         <v>27750</v>
       </c>
       <c r="B24" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3300,7 +3782,7 @@
         <v>27775</v>
       </c>
       <c r="B25" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3308,7 +3790,7 @@
         <v>27800</v>
       </c>
       <c r="B26" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3316,7 +3798,7 @@
         <v>27825</v>
       </c>
       <c r="B27" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3324,7 +3806,7 @@
         <v>27850</v>
       </c>
       <c r="B28" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3332,7 +3814,7 @@
         <v>27875</v>
       </c>
       <c r="B29" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3340,7 +3822,7 @@
         <v>27900</v>
       </c>
       <c r="B30" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3348,7 +3830,7 @@
         <v>27925</v>
       </c>
       <c r="B31" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3356,7 +3838,7 @@
         <v>27950</v>
       </c>
       <c r="B32" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3364,7 +3846,7 @@
         <v>27975</v>
       </c>
       <c r="B33" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,7 +3854,7 @@
         <v>28000</v>
       </c>
       <c r="B34" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3380,7 +3862,7 @@
         <v>28025</v>
       </c>
       <c r="B35" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3388,7 +3870,7 @@
         <v>28050</v>
       </c>
       <c r="B36" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3396,7 +3878,7 @@
         <v>28075</v>
       </c>
       <c r="B37" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3404,7 +3886,7 @@
         <v>28100</v>
       </c>
       <c r="B38" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3412,7 +3894,7 @@
         <v>28125</v>
       </c>
       <c r="B39" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3420,7 +3902,7 @@
         <v>28150</v>
       </c>
       <c r="B40" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3428,7 +3910,7 @@
         <v>28175</v>
       </c>
       <c r="B41" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3436,7 +3918,7 @@
         <v>28200</v>
       </c>
       <c r="B42" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3444,7 +3926,7 @@
         <v>28225</v>
       </c>
       <c r="B43" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3452,7 +3934,7 @@
         <v>28250</v>
       </c>
       <c r="B44" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3460,7 +3942,7 @@
         <v>28275</v>
       </c>
       <c r="B45" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3468,7 +3950,7 @@
         <v>28300</v>
       </c>
       <c r="B46" s="1">
-        <v>2230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3476,7 +3958,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="1">
-        <v>26350</v>
+        <v>-129100</v>
       </c>
     </row>
   </sheetData>
